--- a/test_workbook/work/製造品目詳細一覧_work.xlsx
+++ b/test_workbook/work/製造品目詳細一覧_work.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24307631-66CD-43A9-BB5B-C4B397A9D42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943BD2E6-F5C6-4F46-B48B-D132F90326D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B8AE2BC-6C04-4040-91D4-281C8CDB2E93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A099E31E-4F4C-41E4-9F42-0DB48F39FA7B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Work" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>品目CD</t>
   </si>
@@ -50,88 +50,112 @@
     <t>製造場所CD</t>
   </si>
   <si>
-    <t>P001</t>
-  </si>
-  <si>
-    <t>親A</t>
-  </si>
-  <si>
-    <t>intA</t>
-  </si>
-  <si>
-    <t>LOC1</t>
-  </si>
-  <si>
-    <t>C001</t>
-  </si>
-  <si>
-    <t>子A</t>
-  </si>
-  <si>
-    <t>intC1</t>
-  </si>
-  <si>
-    <t>LOCC1</t>
-  </si>
-  <si>
-    <t>C002</t>
-  </si>
-  <si>
-    <t>子B</t>
-  </si>
-  <si>
-    <t>intC2</t>
-  </si>
-  <si>
-    <t>LOCC2</t>
-  </si>
-  <si>
-    <t>C003</t>
-  </si>
-  <si>
-    <t>子C</t>
-  </si>
-  <si>
-    <t>intC3</t>
-  </si>
-  <si>
-    <t>LOCC3</t>
-  </si>
-  <si>
-    <t>P004</t>
-  </si>
-  <si>
-    <t>親D</t>
-  </si>
-  <si>
-    <t>intD</t>
-  </si>
-  <si>
-    <t>LOC4</t>
-  </si>
-  <si>
-    <t>C004</t>
-  </si>
-  <si>
-    <t>子D</t>
-  </si>
-  <si>
-    <t>intC4</t>
-  </si>
-  <si>
-    <t>LOCC4</t>
+    <t>P0001</t>
+  </si>
+  <si>
+    <t>品名1</t>
   </si>
   <si>
     <t>$D_PS_PurchasePart</t>
   </si>
   <si>
+    <t>MFG01</t>
+  </si>
+  <si>
+    <t>P0002</t>
+  </si>
+  <si>
+    <t>品名2</t>
+  </si>
+  <si>
     <t>$D_PS_InHousePart</t>
   </si>
   <si>
-    <t>LOC2</t>
+    <t>MFG02</t>
+  </si>
+  <si>
+    <t>P0003</t>
+  </si>
+  <si>
+    <t>品名3</t>
   </si>
   <si>
     <t>$D_PS_OutsourcingPart</t>
+  </si>
+  <si>
+    <t>MFG03</t>
+  </si>
+  <si>
+    <t>P0004</t>
+  </si>
+  <si>
+    <t>品名4</t>
+  </si>
+  <si>
+    <t>$D_PS_PhantomPart</t>
+  </si>
+  <si>
+    <t>MFG04</t>
+  </si>
+  <si>
+    <t>P0005</t>
+  </si>
+  <si>
+    <t>品名5</t>
+  </si>
+  <si>
+    <t>MFG05</t>
+  </si>
+  <si>
+    <t>P0006</t>
+  </si>
+  <si>
+    <t>品名6</t>
+  </si>
+  <si>
+    <t>MFG06</t>
+  </si>
+  <si>
+    <t>P0007</t>
+  </si>
+  <si>
+    <t>品名7</t>
+  </si>
+  <si>
+    <t>MFG07</t>
+  </si>
+  <si>
+    <t>P0008</t>
+  </si>
+  <si>
+    <t>品名8</t>
+  </si>
+  <si>
+    <t>MFG08</t>
+  </si>
+  <si>
+    <t>P0009</t>
+  </si>
+  <si>
+    <t>品名9</t>
+  </si>
+  <si>
+    <t>MFG09</t>
+  </si>
+  <si>
+    <t>P0010</t>
+  </si>
+  <si>
+    <t>品名10</t>
+  </si>
+  <si>
+    <t>MFG10</t>
+  </si>
+  <si>
+    <t>製造LT</t>
+  </si>
+  <si>
+    <t>購入LT</t>
   </si>
 </sst>
 </file>
@@ -514,15 +538,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCC7766-455D-4162-8BC6-396DA8D7BD83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA509CD-45FB-480B-B478-61236FB717F7}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,8 +559,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -549,8 +579,14 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -563,8 +599,14 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -577,8 +619,14 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -591,8 +639,14 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -600,66 +654,116 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6">
+        <v>54</v>
+      </c>
+      <c r="F6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>74</v>
+      </c>
+      <c r="F8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>84</v>
+      </c>
+      <c r="F9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>94</v>
+      </c>
+      <c r="F10">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>104</v>
+      </c>
+      <c r="F11">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
